--- a/data/raw/data_ZI_experiment_3_2020_environment.xlsx
+++ b/data/raw/data_ZI_experiment_3_2020_environment.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\0_Ziegelprojekt\3_Aufnahmen_und_Ergebnisse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documents\0_Ziegelprojekt\3_Aufnahmen_und_Ergebnisse\waste_bricks_for_restoration\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data raw" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="142">
   <si>
     <t>brickRatio</t>
   </si>
@@ -451,7 +451,16 @@
     <t>ID of the plot</t>
   </si>
   <si>
-    <t>specRich</t>
+    <t>specPres</t>
+  </si>
+  <si>
+    <t>specAbs</t>
+  </si>
+  <si>
+    <t>Non-established seeded species</t>
+  </si>
+  <si>
+    <t>specPres / (specPres + specAbs)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,6 +543,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -848,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S161"/>
+  <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,11 +881,12 @@
     <col min="15" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="2"/>
+    <col min="19" max="19" width="8.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>105</v>
       </c>
@@ -931,10 +942,13 @@
         <v>138</v>
       </c>
       <c r="S1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -989,11 +1003,14 @@
       <c r="R2" s="2">
         <v>14</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="16">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -1048,11 +1065,14 @@
       <c r="R3" s="2">
         <v>16</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="16">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1107,11 +1127,14 @@
       <c r="R4" s="2">
         <v>16</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="16">
+        <v>4</v>
+      </c>
+      <c r="T4" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1166,11 +1189,14 @@
       <c r="R5" s="2">
         <v>13</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="16">
+        <v>7</v>
+      </c>
+      <c r="T5" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1225,11 +1251,14 @@
       <c r="R6" s="2">
         <v>15</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="16">
+        <v>5</v>
+      </c>
+      <c r="T6" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1284,11 +1313,14 @@
       <c r="R7" s="2">
         <v>14</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="16">
+        <v>6</v>
+      </c>
+      <c r="T7" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1343,11 +1375,14 @@
       <c r="R8" s="2">
         <v>11</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="16">
+        <v>9</v>
+      </c>
+      <c r="T8" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -1402,11 +1437,14 @@
       <c r="R9" s="2">
         <v>14</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="16">
+        <v>6</v>
+      </c>
+      <c r="T9" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1461,11 +1499,14 @@
       <c r="R10" s="2">
         <v>12</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="16">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1520,11 +1561,14 @@
       <c r="R11" s="2">
         <v>11</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="16">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1579,11 +1623,14 @@
       <c r="R12" s="2">
         <v>15</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="16">
+        <v>5</v>
+      </c>
+      <c r="T12" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1638,11 +1685,14 @@
       <c r="R13" s="2">
         <v>14</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="16">
+        <v>6</v>
+      </c>
+      <c r="T13" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1697,11 +1747,14 @@
       <c r="R14" s="2">
         <v>14</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="16">
+        <v>6</v>
+      </c>
+      <c r="T14" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1756,11 +1809,14 @@
       <c r="R15" s="2">
         <v>16</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="16">
+        <v>4</v>
+      </c>
+      <c r="T15" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
@@ -1815,11 +1871,14 @@
       <c r="R16" s="2">
         <v>6</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="16">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>33</v>
       </c>
@@ -1874,11 +1933,14 @@
       <c r="R17" s="2">
         <v>14</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="16">
+        <v>6</v>
+      </c>
+      <c r="T17" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>34</v>
       </c>
@@ -1933,11 +1995,14 @@
       <c r="R18" s="2">
         <v>9</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="16">
+        <v>11</v>
+      </c>
+      <c r="T18" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1992,11 +2057,14 @@
       <c r="R19" s="2">
         <v>17</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="16">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -2051,11 +2119,14 @@
       <c r="R20" s="2">
         <v>14</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="16">
+        <v>6</v>
+      </c>
+      <c r="T20" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>37</v>
       </c>
@@ -2110,11 +2181,14 @@
       <c r="R21" s="2">
         <v>15</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="16">
+        <v>5</v>
+      </c>
+      <c r="T21" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
@@ -2169,11 +2243,14 @@
       <c r="R22" s="2">
         <v>11</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="16">
+        <v>9</v>
+      </c>
+      <c r="T22" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>39</v>
       </c>
@@ -2228,11 +2305,14 @@
       <c r="R23" s="2">
         <v>13</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="16">
+        <v>7</v>
+      </c>
+      <c r="T23" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -2287,11 +2367,14 @@
       <c r="R24" s="2">
         <v>12</v>
       </c>
-      <c r="S24" s="2">
+      <c r="S24" s="16">
+        <v>8</v>
+      </c>
+      <c r="T24" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>41</v>
       </c>
@@ -2346,11 +2429,14 @@
       <c r="R25" s="2">
         <v>12</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="16">
+        <v>8</v>
+      </c>
+      <c r="T25" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -2405,11 +2491,14 @@
       <c r="R26" s="2">
         <v>12</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="16">
+        <v>8</v>
+      </c>
+      <c r="T26" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>43</v>
       </c>
@@ -2464,11 +2553,14 @@
       <c r="R27" s="2">
         <v>11</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="16">
+        <v>9</v>
+      </c>
+      <c r="T27" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>44</v>
       </c>
@@ -2523,11 +2615,14 @@
       <c r="R28" s="2">
         <v>14</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="16">
+        <v>6</v>
+      </c>
+      <c r="T28" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>45</v>
       </c>
@@ -2582,11 +2677,14 @@
       <c r="R29" s="2">
         <v>12</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="16">
+        <v>8</v>
+      </c>
+      <c r="T29" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>46</v>
       </c>
@@ -2641,11 +2739,14 @@
       <c r="R30" s="2">
         <v>15</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="16">
+        <v>5</v>
+      </c>
+      <c r="T30" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>47</v>
       </c>
@@ -2700,11 +2801,14 @@
       <c r="R31" s="2">
         <v>16</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="16">
+        <v>4</v>
+      </c>
+      <c r="T31" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>48</v>
       </c>
@@ -2759,11 +2863,14 @@
       <c r="R32" s="2">
         <v>13</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="16">
+        <v>7</v>
+      </c>
+      <c r="T32" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -2818,11 +2925,14 @@
       <c r="R33" s="2">
         <v>13</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="16">
+        <v>7</v>
+      </c>
+      <c r="T33" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -2877,11 +2987,14 @@
       <c r="R34" s="2">
         <v>13</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="16">
+        <v>7</v>
+      </c>
+      <c r="T34" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -2936,11 +3049,14 @@
       <c r="R35" s="2">
         <v>14</v>
       </c>
-      <c r="S35" s="2">
+      <c r="S35" s="16">
+        <v>6</v>
+      </c>
+      <c r="T35" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -2995,11 +3111,14 @@
       <c r="R36" s="2">
         <v>8</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="16">
+        <v>12</v>
+      </c>
+      <c r="T36" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>53</v>
       </c>
@@ -3054,11 +3173,14 @@
       <c r="R37" s="2">
         <v>11</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="16">
+        <v>9</v>
+      </c>
+      <c r="T37" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>54</v>
       </c>
@@ -3113,11 +3235,14 @@
       <c r="R38" s="2">
         <v>12</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="16">
+        <v>8</v>
+      </c>
+      <c r="T38" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>55</v>
       </c>
@@ -3172,11 +3297,14 @@
       <c r="R39" s="2">
         <v>12</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="16">
+        <v>8</v>
+      </c>
+      <c r="T39" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -3231,11 +3359,14 @@
       <c r="R40" s="2">
         <v>16</v>
       </c>
-      <c r="S40" s="2">
+      <c r="S40" s="16">
+        <v>4</v>
+      </c>
+      <c r="T40" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -3290,11 +3421,14 @@
       <c r="R41" s="2">
         <v>12</v>
       </c>
-      <c r="S41" s="2">
+      <c r="S41" s="16">
+        <v>8</v>
+      </c>
+      <c r="T41" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -3349,11 +3483,14 @@
       <c r="R42" s="2">
         <v>16</v>
       </c>
-      <c r="S42" s="2">
+      <c r="S42" s="16">
+        <v>4</v>
+      </c>
+      <c r="T42" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>59</v>
       </c>
@@ -3408,11 +3545,14 @@
       <c r="R43" s="2">
         <v>11</v>
       </c>
-      <c r="S43" s="2">
+      <c r="S43" s="16">
+        <v>9</v>
+      </c>
+      <c r="T43" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>60</v>
       </c>
@@ -3467,11 +3607,14 @@
       <c r="R44" s="2">
         <v>13</v>
       </c>
-      <c r="S44" s="2">
+      <c r="S44" s="16">
+        <v>7</v>
+      </c>
+      <c r="T44" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>61</v>
       </c>
@@ -3526,11 +3669,14 @@
       <c r="R45" s="2">
         <v>14</v>
       </c>
-      <c r="S45" s="2">
+      <c r="S45" s="16">
+        <v>6</v>
+      </c>
+      <c r="T45" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
@@ -3585,11 +3731,14 @@
       <c r="R46" s="2">
         <v>17</v>
       </c>
-      <c r="S46" s="2">
+      <c r="S46" s="16">
+        <v>3</v>
+      </c>
+      <c r="T46" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -3644,11 +3793,14 @@
       <c r="R47" s="2">
         <v>15</v>
       </c>
-      <c r="S47" s="2">
+      <c r="S47" s="16">
+        <v>5</v>
+      </c>
+      <c r="T47" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>64</v>
       </c>
@@ -3703,11 +3855,14 @@
       <c r="R48" s="2">
         <v>14</v>
       </c>
-      <c r="S48" s="2">
+      <c r="S48" s="16">
+        <v>6</v>
+      </c>
+      <c r="T48" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>65</v>
       </c>
@@ -3762,11 +3917,14 @@
       <c r="R49" s="2">
         <v>12</v>
       </c>
-      <c r="S49" s="2">
+      <c r="S49" s="16">
+        <v>8</v>
+      </c>
+      <c r="T49" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>66</v>
       </c>
@@ -3821,11 +3979,14 @@
       <c r="R50" s="2">
         <v>13</v>
       </c>
-      <c r="S50" s="2">
+      <c r="S50" s="16">
+        <v>7</v>
+      </c>
+      <c r="T50" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
@@ -3880,11 +4041,14 @@
       <c r="R51" s="2">
         <v>13</v>
       </c>
-      <c r="S51" s="2">
+      <c r="S51" s="16">
+        <v>7</v>
+      </c>
+      <c r="T51" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>68</v>
       </c>
@@ -3939,11 +4103,14 @@
       <c r="R52" s="2">
         <v>7</v>
       </c>
-      <c r="S52" s="2">
+      <c r="S52" s="16">
+        <v>13</v>
+      </c>
+      <c r="T52" s="2">
         <v>0.35</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>69</v>
       </c>
@@ -3998,11 +4165,14 @@
       <c r="R53" s="2">
         <v>16</v>
       </c>
-      <c r="S53" s="2">
+      <c r="S53" s="16">
+        <v>4</v>
+      </c>
+      <c r="T53" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>70</v>
       </c>
@@ -4057,11 +4227,14 @@
       <c r="R54" s="2">
         <v>13</v>
       </c>
-      <c r="S54" s="2">
+      <c r="S54" s="16">
+        <v>7</v>
+      </c>
+      <c r="T54" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>71</v>
       </c>
@@ -4116,11 +4289,14 @@
       <c r="R55" s="2">
         <v>10</v>
       </c>
-      <c r="S55" s="2">
+      <c r="S55" s="16">
+        <v>10</v>
+      </c>
+      <c r="T55" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>72</v>
       </c>
@@ -4175,11 +4351,14 @@
       <c r="R56" s="2">
         <v>16</v>
       </c>
-      <c r="S56" s="2">
+      <c r="S56" s="16">
+        <v>4</v>
+      </c>
+      <c r="T56" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>73</v>
       </c>
@@ -4234,11 +4413,14 @@
       <c r="R57" s="2">
         <v>15</v>
       </c>
-      <c r="S57" s="2">
+      <c r="S57" s="16">
+        <v>5</v>
+      </c>
+      <c r="T57" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>74</v>
       </c>
@@ -4293,11 +4475,14 @@
       <c r="R58" s="2">
         <v>16</v>
       </c>
-      <c r="S58" s="2">
+      <c r="S58" s="16">
+        <v>4</v>
+      </c>
+      <c r="T58" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>75</v>
       </c>
@@ -4352,11 +4537,14 @@
       <c r="R59" s="2">
         <v>17</v>
       </c>
-      <c r="S59" s="2">
+      <c r="S59" s="16">
+        <v>3</v>
+      </c>
+      <c r="T59" s="2">
         <v>0.85</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>76</v>
       </c>
@@ -4411,11 +4599,14 @@
       <c r="R60" s="2">
         <v>15</v>
       </c>
-      <c r="S60" s="2">
+      <c r="S60" s="16">
+        <v>5</v>
+      </c>
+      <c r="T60" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>77</v>
       </c>
@@ -4470,11 +4661,14 @@
       <c r="R61" s="2">
         <v>13</v>
       </c>
-      <c r="S61" s="2">
+      <c r="S61" s="16">
+        <v>7</v>
+      </c>
+      <c r="T61" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>78</v>
       </c>
@@ -4529,11 +4723,14 @@
       <c r="R62" s="2">
         <v>16</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S62" s="16">
+        <v>4</v>
+      </c>
+      <c r="T62" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>79</v>
       </c>
@@ -4588,11 +4785,14 @@
       <c r="R63" s="2">
         <v>16</v>
       </c>
-      <c r="S63" s="2">
+      <c r="S63" s="16">
+        <v>4</v>
+      </c>
+      <c r="T63" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>80</v>
       </c>
@@ -4647,11 +4847,14 @@
       <c r="R64" s="2">
         <v>11</v>
       </c>
-      <c r="S64" s="2">
+      <c r="S64" s="16">
+        <v>9</v>
+      </c>
+      <c r="T64" s="2">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>81</v>
       </c>
@@ -4706,11 +4909,14 @@
       <c r="R65" s="2">
         <v>9</v>
       </c>
-      <c r="S65" s="2">
+      <c r="S65" s="16">
+        <v>11</v>
+      </c>
+      <c r="T65" s="2">
         <v>0.45</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>82</v>
       </c>
@@ -4765,11 +4971,14 @@
       <c r="R66" s="2">
         <v>14</v>
       </c>
-      <c r="S66" s="2">
+      <c r="S66" s="16">
+        <v>6</v>
+      </c>
+      <c r="T66" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>83</v>
       </c>
@@ -4824,11 +5033,14 @@
       <c r="R67" s="2">
         <v>10</v>
       </c>
-      <c r="S67" s="2">
+      <c r="S67" s="16">
+        <v>10</v>
+      </c>
+      <c r="T67" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>84</v>
       </c>
@@ -4883,11 +5095,14 @@
       <c r="R68" s="2">
         <v>15</v>
       </c>
-      <c r="S68" s="2">
+      <c r="S68" s="16">
+        <v>5</v>
+      </c>
+      <c r="T68" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>85</v>
       </c>
@@ -4942,11 +5157,14 @@
       <c r="R69" s="2">
         <v>16</v>
       </c>
-      <c r="S69" s="2">
+      <c r="S69" s="16">
+        <v>4</v>
+      </c>
+      <c r="T69" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>86</v>
       </c>
@@ -5001,11 +5219,14 @@
       <c r="R70" s="2">
         <v>15</v>
       </c>
-      <c r="S70" s="2">
+      <c r="S70" s="16">
+        <v>5</v>
+      </c>
+      <c r="T70" s="2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>87</v>
       </c>
@@ -5060,11 +5281,14 @@
       <c r="R71" s="2">
         <v>13</v>
       </c>
-      <c r="S71" s="2">
+      <c r="S71" s="16">
+        <v>7</v>
+      </c>
+      <c r="T71" s="2">
         <v>0.65</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>88</v>
       </c>
@@ -5119,11 +5343,14 @@
       <c r="R72" s="2">
         <v>16</v>
       </c>
-      <c r="S72" s="2">
+      <c r="S72" s="16">
+        <v>4</v>
+      </c>
+      <c r="T72" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>89</v>
       </c>
@@ -5178,29 +5405,32 @@
       <c r="R73" s="2">
         <v>14</v>
       </c>
-      <c r="S73" s="2">
+      <c r="S73" s="16">
+        <v>6</v>
+      </c>
+      <c r="T73" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q74" s="6"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q75" s="6"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q76" s="6"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q77" s="6"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q78" s="6"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q79" s="6"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="Q80" s="6"/>
     </row>
     <row r="81" spans="17:17" x14ac:dyDescent="0.25">
@@ -5458,1563 +5688,4823 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:T161"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="2" customWidth="1"/>
+    <col min="20" max="20" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
-      <c r="M65" s="11"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-      <c r="M66" s="11"/>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-      <c r="M67" s="11"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
-      <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C2" s="2">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.16</v>
+      </c>
+      <c r="H2" s="11">
+        <v>142.38460000000001</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="11">
+        <v>186.83410000000001</v>
+      </c>
+      <c r="L2" s="11">
+        <v>83.966899999999995</v>
+      </c>
+      <c r="M2" s="11">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="N2" s="11">
+        <v>21.045999999999999</v>
+      </c>
+      <c r="O2" s="11">
+        <v>92.578299999999999</v>
+      </c>
+      <c r="P2" s="11">
+        <v>90.116</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="R2" s="2">
+        <v>14</v>
+      </c>
+      <c r="S2" s="16">
+        <v>6</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8.39</v>
+      </c>
+      <c r="H3" s="11">
+        <v>119.2565</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="11">
+        <v>204.80619999999999</v>
+      </c>
+      <c r="L3" s="11">
+        <v>83.253600000000006</v>
+      </c>
+      <c r="M3" s="11">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="N3" s="11">
+        <v>21.014900000000001</v>
+      </c>
+      <c r="O3" s="11">
+        <v>91.085700000000003</v>
+      </c>
+      <c r="P3" s="11">
+        <v>82.187100000000001</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>13.01</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16</v>
+      </c>
+      <c r="S3" s="16">
+        <v>4</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="H4" s="11">
+        <v>118.2724</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" s="11">
+        <v>168.6919</v>
+      </c>
+      <c r="L4" s="11">
+        <v>83.072900000000004</v>
+      </c>
+      <c r="M4" s="11">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="N4" s="11">
+        <v>16.281600000000001</v>
+      </c>
+      <c r="O4" s="11">
+        <v>70.027699999999996</v>
+      </c>
+      <c r="P4" s="11">
+        <v>111.0078</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="R4" s="2">
+        <v>16</v>
+      </c>
+      <c r="S4" s="16">
+        <v>4</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C5" s="2">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>10.98</v>
+      </c>
+      <c r="R5" s="2">
+        <v>13</v>
+      </c>
+      <c r="S5" s="16">
+        <v>7</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>12.97</v>
+      </c>
+      <c r="R6" s="2">
+        <v>15</v>
+      </c>
+      <c r="S6" s="16">
+        <v>5</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>16.41</v>
+      </c>
+      <c r="R7" s="2">
+        <v>14</v>
+      </c>
+      <c r="S7" s="16">
+        <v>6</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C8" s="2">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="R8" s="2">
+        <v>11</v>
+      </c>
+      <c r="S8" s="16">
+        <v>9</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C9" s="2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>13.55</v>
+      </c>
+      <c r="R9" s="2">
+        <v>14</v>
+      </c>
+      <c r="S9" s="16">
+        <v>6</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C10" s="2">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>10.72</v>
+      </c>
+      <c r="R10" s="2">
+        <v>12</v>
+      </c>
+      <c r="S10" s="16">
+        <v>8</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>7.51</v>
+      </c>
+      <c r="H11" s="11">
+        <v>182.9761</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" s="11">
+        <v>57.398800000000001</v>
+      </c>
+      <c r="K11" s="11">
+        <v>236.696</v>
+      </c>
+      <c r="L11" s="11">
+        <v>109.0484</v>
+      </c>
+      <c r="M11" s="11">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="N11" s="11">
+        <v>24.575900000000001</v>
+      </c>
+      <c r="O11" s="11">
+        <v>86.468900000000005</v>
+      </c>
+      <c r="P11" s="11">
+        <v>101.0427</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>5.99</v>
+      </c>
+      <c r="R11" s="2">
+        <v>11</v>
+      </c>
+      <c r="S11" s="16">
+        <v>9</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C12" s="2">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>7.14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>270.2534</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="11">
+        <v>62.753399999999999</v>
+      </c>
+      <c r="K12" s="11">
+        <v>305.47789999999998</v>
+      </c>
+      <c r="L12" s="11">
+        <v>147.1514</v>
+      </c>
+      <c r="M12" s="11">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="N12" s="11">
+        <v>24.642800000000001</v>
+      </c>
+      <c r="O12" s="11">
+        <v>104.43040000000001</v>
+      </c>
+      <c r="P12" s="11">
+        <v>113.24930000000001</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>7.04</v>
+      </c>
+      <c r="R12" s="2">
+        <v>15</v>
+      </c>
+      <c r="S12" s="16">
+        <v>5</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C13" s="2">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.07</v>
+      </c>
+      <c r="H13" s="11">
+        <v>164.26089999999999</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="11">
+        <v>56.608800000000002</v>
+      </c>
+      <c r="K13" s="11">
+        <v>180.97059999999999</v>
+      </c>
+      <c r="L13" s="11">
+        <v>93.336299999999994</v>
+      </c>
+      <c r="M13" s="11">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="N13" s="11">
+        <v>19.4572</v>
+      </c>
+      <c r="O13" s="11">
+        <v>77.358199999999997</v>
+      </c>
+      <c r="P13" s="11">
+        <v>93.347800000000007</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>14.74</v>
+      </c>
+      <c r="R13" s="2">
+        <v>14</v>
+      </c>
+      <c r="S13" s="16">
+        <v>6</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>8.01</v>
+      </c>
+      <c r="H14" s="11">
+        <v>250.7355</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="11">
+        <v>312.01479999999998</v>
+      </c>
+      <c r="L14" s="11">
+        <v>110.913</v>
+      </c>
+      <c r="M14" s="11">
+        <v>5.57E-2</v>
+      </c>
+      <c r="N14" s="11">
+        <v>14.5335</v>
+      </c>
+      <c r="O14" s="11">
+        <v>79.790400000000005</v>
+      </c>
+      <c r="P14" s="11">
+        <v>184.285</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>7.15</v>
+      </c>
+      <c r="R14" s="2">
+        <v>14</v>
+      </c>
+      <c r="S14" s="16">
+        <v>6</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C15" s="2">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>7.22</v>
+      </c>
+      <c r="H15" s="11">
+        <v>195.89789999999999</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="11">
+        <v>282.9409</v>
+      </c>
+      <c r="L15" s="11">
+        <v>99.125799999999998</v>
+      </c>
+      <c r="M15" s="11">
+        <v>5.0200000000000002E-2</v>
+      </c>
+      <c r="N15" s="11">
+        <v>13.291600000000001</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P15" s="11">
+        <v>160.02440000000001</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="R15" s="2">
+        <v>16</v>
+      </c>
+      <c r="S15" s="16">
+        <v>4</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C16" s="2">
+        <v>30</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="11">
+        <v>346.06279999999998</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K16" s="11">
+        <v>707.12670000000003</v>
+      </c>
+      <c r="L16" s="11">
+        <v>115.8918</v>
+      </c>
+      <c r="M16" s="11">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="N16" s="11">
+        <v>29.436399999999999</v>
+      </c>
+      <c r="O16" s="11">
+        <v>124.15689999999999</v>
+      </c>
+      <c r="P16" s="11">
+        <v>247.24860000000001</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>5.46</v>
+      </c>
+      <c r="R16" s="2">
+        <v>6</v>
+      </c>
+      <c r="S16" s="16">
+        <v>14</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C17" s="2">
+        <v>30</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R17" s="2">
+        <v>14</v>
+      </c>
+      <c r="S17" s="16">
+        <v>6</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>5.47</v>
+      </c>
+      <c r="R18" s="2">
+        <v>9</v>
+      </c>
+      <c r="S18" s="16">
+        <v>11</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C19" s="2">
+        <v>30</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="R19" s="2">
+        <v>17</v>
+      </c>
+      <c r="S19" s="16">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C20" s="2">
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>7.58</v>
+      </c>
+      <c r="R20" s="2">
+        <v>14</v>
+      </c>
+      <c r="S20" s="16">
+        <v>6</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>10.27</v>
+      </c>
+      <c r="R21" s="2">
+        <v>15</v>
+      </c>
+      <c r="S21" s="16">
+        <v>5</v>
+      </c>
+      <c r="T21" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C22" s="2">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>6.91</v>
+      </c>
+      <c r="R22" s="2">
+        <v>11</v>
+      </c>
+      <c r="S22" s="16">
+        <v>9</v>
+      </c>
+      <c r="T22" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C23" s="2">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.03</v>
+      </c>
+      <c r="H23" s="11">
+        <v>249.755</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="11">
+        <v>346.30509999999998</v>
+      </c>
+      <c r="L23" s="11">
+        <v>115.8943</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N23" s="11">
+        <v>13.832700000000001</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" s="11">
+        <v>200.56970000000001</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>10.53</v>
+      </c>
+      <c r="R23" s="2">
+        <v>13</v>
+      </c>
+      <c r="S23" s="16">
+        <v>7</v>
+      </c>
+      <c r="T23" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C24" s="2">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="H24" s="11">
+        <v>339.5111</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="11">
+        <v>374.85849999999999</v>
+      </c>
+      <c r="L24" s="11">
+        <v>135.57060000000001</v>
+      </c>
+      <c r="M24" s="11">
+        <v>4.48E-2</v>
+      </c>
+      <c r="N24" s="11">
+        <v>22.376100000000001</v>
+      </c>
+      <c r="O24" s="11">
+        <v>81.418199999999999</v>
+      </c>
+      <c r="P24" s="11">
+        <v>212.34440000000001</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="R24" s="2">
+        <v>12</v>
+      </c>
+      <c r="S24" s="16">
+        <v>8</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C25" s="2">
+        <v>30</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>8.32</v>
+      </c>
+      <c r="H25" s="11">
+        <v>352.88729999999998</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K25" s="11">
+        <v>571.73159999999996</v>
+      </c>
+      <c r="L25" s="11">
+        <v>148.3192</v>
+      </c>
+      <c r="M25" s="11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="N25" s="11">
+        <v>18.726800000000001</v>
+      </c>
+      <c r="O25" s="11">
+        <v>105.8438</v>
+      </c>
+      <c r="P25" s="11">
+        <v>242.20750000000001</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>10.91</v>
+      </c>
+      <c r="R25" s="2">
+        <v>12</v>
+      </c>
+      <c r="S25" s="16">
+        <v>8</v>
+      </c>
+      <c r="T25" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C26" s="2">
+        <v>30</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8.15</v>
+      </c>
+      <c r="H26" s="11">
+        <v>156.58920000000001</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K26" s="11">
+        <v>295.23680000000002</v>
+      </c>
+      <c r="L26" s="11">
+        <v>81.740700000000004</v>
+      </c>
+      <c r="M26" s="11">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="N26" s="11">
+        <v>16.987400000000001</v>
+      </c>
+      <c r="O26" s="11">
+        <v>79.524100000000004</v>
+      </c>
+      <c r="P26" s="11">
+        <v>125.35380000000001</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="R26" s="2">
+        <v>12</v>
+      </c>
+      <c r="S26" s="16">
+        <v>8</v>
+      </c>
+      <c r="T26" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C27" s="2">
+        <v>30</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="H27" s="11">
+        <v>197.37379999999999</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J27" s="11">
+        <v>51.9773</v>
+      </c>
+      <c r="K27" s="11">
+        <v>370.06760000000003</v>
+      </c>
+      <c r="L27" s="11">
+        <v>107.3021</v>
+      </c>
+      <c r="M27" s="11">
+        <v>3.3599999999999998E-2</v>
+      </c>
+      <c r="N27" s="11">
+        <v>20.8614</v>
+      </c>
+      <c r="O27" s="11">
+        <v>92.0625</v>
+      </c>
+      <c r="P27" s="11">
+        <v>153.35</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>6.34</v>
+      </c>
+      <c r="R27" s="2">
+        <v>11</v>
+      </c>
+      <c r="S27" s="16">
+        <v>9</v>
+      </c>
+      <c r="T27" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C28" s="2">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H28" s="11">
+        <v>274.50020000000001</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="11">
+        <v>60.457000000000001</v>
+      </c>
+      <c r="K28" s="11">
+        <v>398.14109999999999</v>
+      </c>
+      <c r="L28" s="11">
+        <v>127.0959</v>
+      </c>
+      <c r="M28" s="11">
+        <v>3.95E-2</v>
+      </c>
+      <c r="N28" s="11">
+        <v>27.5352</v>
+      </c>
+      <c r="O28" s="11">
+        <v>122.61879999999999</v>
+      </c>
+      <c r="P28" s="11">
+        <v>134.37200000000001</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="R28" s="2">
+        <v>14</v>
+      </c>
+      <c r="S28" s="16">
+        <v>6</v>
+      </c>
+      <c r="T28" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C29" s="2">
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="11">
+        <v>563.05700000000002</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="11">
+        <v>431.0317</v>
+      </c>
+      <c r="L29" s="11">
+        <v>198.68790000000001</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N29" s="11">
+        <v>15.4322</v>
+      </c>
+      <c r="O29" s="11">
+        <v>79.393000000000001</v>
+      </c>
+      <c r="P29" s="11">
+        <v>310.5659</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>12.67</v>
+      </c>
+      <c r="R29" s="2">
+        <v>12</v>
+      </c>
+      <c r="S29" s="16">
+        <v>8</v>
+      </c>
+      <c r="T29" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C30" s="2">
+        <v>30</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="R30" s="2">
+        <v>15</v>
+      </c>
+      <c r="S30" s="16">
+        <v>5</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>7.28</v>
+      </c>
+      <c r="R31" s="2">
+        <v>16</v>
+      </c>
+      <c r="S31" s="16">
+        <v>4</v>
+      </c>
+      <c r="T31" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C32" s="2">
+        <v>30</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>6.01</v>
+      </c>
+      <c r="R32" s="2">
+        <v>13</v>
+      </c>
+      <c r="S32" s="16">
+        <v>7</v>
+      </c>
+      <c r="T32" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C33" s="2">
+        <v>30</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="R33" s="2">
+        <v>13</v>
+      </c>
+      <c r="S33" s="16">
+        <v>7</v>
+      </c>
+      <c r="T33" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C34" s="2">
+        <v>30</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>14.02</v>
+      </c>
+      <c r="R34" s="2">
+        <v>13</v>
+      </c>
+      <c r="S34" s="16">
+        <v>7</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C35" s="2">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>15.85</v>
+      </c>
+      <c r="R35" s="2">
+        <v>14</v>
+      </c>
+      <c r="S35" s="16">
+        <v>6</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C36" s="2">
+        <v>30</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>7.28</v>
+      </c>
+      <c r="H36" s="11">
+        <v>241.46170000000001</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J36" s="11">
+        <v>68.148099999999999</v>
+      </c>
+      <c r="K36" s="11">
+        <v>304.87720000000002</v>
+      </c>
+      <c r="L36" s="11">
+        <v>104.43210000000001</v>
+      </c>
+      <c r="M36" s="11">
+        <v>5.5800000000000002E-2</v>
+      </c>
+      <c r="N36" s="11">
+        <v>20.889099999999999</v>
+      </c>
+      <c r="O36" s="11">
+        <v>104.08710000000001</v>
+      </c>
+      <c r="P36" s="11">
+        <v>129.59960000000001</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>7.31</v>
+      </c>
+      <c r="R36" s="2">
+        <v>8</v>
+      </c>
+      <c r="S36" s="16">
+        <v>12</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C37" s="2">
+        <v>30</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H37" s="11">
+        <v>124.17700000000001</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" s="11">
+        <v>35.8598</v>
+      </c>
+      <c r="K37" s="11">
+        <v>163.16290000000001</v>
+      </c>
+      <c r="L37" s="11">
+        <v>64.032700000000006</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" s="11">
+        <v>17.974499999999999</v>
+      </c>
+      <c r="O37" s="11">
+        <v>64.539000000000001</v>
+      </c>
+      <c r="P37" s="11">
+        <v>106.9678</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>5.98</v>
+      </c>
+      <c r="R37" s="2">
+        <v>11</v>
+      </c>
+      <c r="S37" s="16">
+        <v>9</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C38" s="2">
+        <v>30</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="11">
+        <v>147.7997</v>
+      </c>
+      <c r="M38" s="11">
+        <v>4.1799999999999997E-2</v>
+      </c>
+      <c r="N38" s="11">
+        <v>16.140999999999998</v>
+      </c>
+      <c r="O38" s="11">
+        <v>113.64749999999999</v>
+      </c>
+      <c r="P38" s="11">
+        <v>122.83</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>12.64</v>
+      </c>
+      <c r="R38" s="2">
+        <v>12</v>
+      </c>
+      <c r="S38" s="16">
+        <v>8</v>
+      </c>
+      <c r="T38" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="11">
+        <v>177.85230000000001</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="11">
+        <v>297.9434</v>
+      </c>
+      <c r="L39" s="11">
+        <v>114.9365</v>
+      </c>
+      <c r="M39" s="11">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="N39" s="11">
+        <v>19.156600000000001</v>
+      </c>
+      <c r="O39" s="11">
+        <v>69.447599999999994</v>
+      </c>
+      <c r="P39" s="11">
+        <v>162.2877</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>11.03</v>
+      </c>
+      <c r="R39" s="2">
+        <v>12</v>
+      </c>
+      <c r="S39" s="16">
+        <v>8</v>
+      </c>
+      <c r="T39" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C40" s="2">
+        <v>5</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8.19</v>
+      </c>
+      <c r="H40" s="11">
+        <v>284.50510000000003</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="11">
+        <v>300.65460000000002</v>
+      </c>
+      <c r="L40" s="11">
+        <v>142.6233</v>
+      </c>
+      <c r="M40" s="11">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="N40" s="11">
+        <v>17.335999999999999</v>
+      </c>
+      <c r="O40" s="11">
+        <v>66.8416</v>
+      </c>
+      <c r="P40" s="11">
+        <v>181.73939999999999</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>5.36</v>
+      </c>
+      <c r="R40" s="2">
+        <v>16</v>
+      </c>
+      <c r="S40" s="16">
+        <v>4</v>
+      </c>
+      <c r="T40" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C41" s="2">
+        <v>5</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>8.35</v>
+      </c>
+      <c r="H41" s="11">
+        <v>157.04920000000001</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K41" s="11">
+        <v>191.6925</v>
+      </c>
+      <c r="L41" s="11">
+        <v>117.74850000000001</v>
+      </c>
+      <c r="M41" s="11">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="N41" s="11">
+        <v>6.6486000000000001</v>
+      </c>
+      <c r="O41" s="11">
+        <v>52.891800000000003</v>
+      </c>
+      <c r="P41" s="11">
+        <v>126.926</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>9.34</v>
+      </c>
+      <c r="R41" s="2">
+        <v>12</v>
+      </c>
+      <c r="S41" s="16">
+        <v>8</v>
+      </c>
+      <c r="T41" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C42" s="2">
+        <v>5</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="R42" s="2">
+        <v>16</v>
+      </c>
+      <c r="S42" s="16">
+        <v>4</v>
+      </c>
+      <c r="T42" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C43" s="2">
+        <v>5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="R43" s="2">
+        <v>11</v>
+      </c>
+      <c r="S43" s="16">
+        <v>9</v>
+      </c>
+      <c r="T43" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="R44" s="2">
+        <v>13</v>
+      </c>
+      <c r="S44" s="16">
+        <v>7</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C45" s="2">
+        <v>5</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>10.8</v>
+      </c>
+      <c r="R45" s="2">
+        <v>14</v>
+      </c>
+      <c r="S45" s="16">
+        <v>6</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>17.36</v>
+      </c>
+      <c r="R46" s="2">
+        <v>17</v>
+      </c>
+      <c r="S46" s="16">
+        <v>3</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C47" s="2">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>9.44</v>
+      </c>
+      <c r="R47" s="2">
+        <v>15</v>
+      </c>
+      <c r="S47" s="16">
+        <v>5</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C48" s="2">
+        <v>5</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>8.31</v>
+      </c>
+      <c r="H48" s="11">
+        <v>126.038</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K48" s="11">
+        <v>157.04310000000001</v>
+      </c>
+      <c r="L48" s="11">
+        <v>83.731300000000005</v>
+      </c>
+      <c r="M48" s="11">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N48" s="11">
+        <v>14.1586</v>
+      </c>
+      <c r="O48" s="11">
+        <v>52.883400000000002</v>
+      </c>
+      <c r="P48" s="11">
+        <v>116.5399</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>7.02</v>
+      </c>
+      <c r="R48" s="2">
+        <v>14</v>
+      </c>
+      <c r="S48" s="16">
+        <v>6</v>
+      </c>
+      <c r="T48" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C49" s="2">
+        <v>5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>8.39</v>
+      </c>
+      <c r="H49" s="11">
+        <v>232.14680000000001</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K49" s="11">
+        <v>227.13900000000001</v>
+      </c>
+      <c r="L49" s="11">
+        <v>138.67410000000001</v>
+      </c>
+      <c r="M49" s="11">
+        <v>7.6499999999999999E-2</v>
+      </c>
+      <c r="N49" s="11">
+        <v>8.1701999999999995</v>
+      </c>
+      <c r="O49" s="11">
+        <v>55.169600000000003</v>
+      </c>
+      <c r="P49" s="11">
+        <v>158.72739999999999</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>13.66</v>
+      </c>
+      <c r="R49" s="2">
+        <v>12</v>
+      </c>
+      <c r="S49" s="16">
+        <v>8</v>
+      </c>
+      <c r="T49" s="2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C50" s="2">
+        <v>5</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>7.95</v>
+      </c>
+      <c r="H50" s="11">
+        <v>436.79109999999997</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" s="11">
+        <v>315.27519999999998</v>
+      </c>
+      <c r="L50" s="11">
+        <v>212.4119</v>
+      </c>
+      <c r="M50" s="11">
+        <v>7.3300000000000004E-2</v>
+      </c>
+      <c r="N50" s="11">
+        <v>11.702500000000001</v>
+      </c>
+      <c r="O50" s="11">
+        <v>87.084599999999995</v>
+      </c>
+      <c r="P50" s="11">
+        <v>185.51050000000001</v>
+      </c>
+      <c r="Q50" s="7">
+        <v>11.29</v>
+      </c>
+      <c r="R50" s="2">
+        <v>13</v>
+      </c>
+      <c r="S50" s="16">
+        <v>7</v>
+      </c>
+      <c r="T50" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C51" s="2">
+        <v>5</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>8.42</v>
+      </c>
+      <c r="H51" s="11">
+        <v>222.2182</v>
+      </c>
+      <c r="I51" s="11">
+        <v>13.348100000000001</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K51" s="11">
+        <v>404.32220000000001</v>
+      </c>
+      <c r="L51" s="11">
+        <v>82.774100000000004</v>
+      </c>
+      <c r="M51" s="11">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="N51" s="11">
+        <v>12.083600000000001</v>
+      </c>
+      <c r="O51" s="11">
+        <v>47.021700000000003</v>
+      </c>
+      <c r="P51" s="11">
+        <v>257.58179999999999</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>3.52</v>
+      </c>
+      <c r="R51" s="2">
+        <v>13</v>
+      </c>
+      <c r="S51" s="16">
+        <v>7</v>
+      </c>
+      <c r="T51" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>8.34</v>
+      </c>
+      <c r="H52" s="11">
+        <v>268.7466</v>
+      </c>
+      <c r="I52" s="11">
+        <v>39.926600000000001</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K52" s="11">
+        <v>391.23140000000001</v>
+      </c>
+      <c r="L52" s="11">
+        <v>81.108000000000004</v>
+      </c>
+      <c r="M52" s="11">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N52" s="11">
+        <v>11.4627</v>
+      </c>
+      <c r="O52" s="11">
+        <v>54.819099999999999</v>
+      </c>
+      <c r="P52" s="11">
+        <v>264.07530000000003</v>
+      </c>
+      <c r="Q52" s="7">
+        <v>1.94</v>
+      </c>
+      <c r="R52" s="2">
+        <v>7</v>
+      </c>
+      <c r="S52" s="16">
+        <v>13</v>
+      </c>
+      <c r="T52" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C53" s="2">
+        <v>5</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="H53" s="11">
+        <v>223.3501</v>
+      </c>
+      <c r="I53" s="11">
+        <v>7.4837999999999996</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K53" s="11">
+        <v>420.59750000000003</v>
+      </c>
+      <c r="L53" s="11">
+        <v>86.208399999999997</v>
+      </c>
+      <c r="M53" s="11">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="N53" s="11">
+        <v>15.128500000000001</v>
+      </c>
+      <c r="O53" s="11">
+        <v>49.664700000000003</v>
+      </c>
+      <c r="P53" s="11">
+        <v>258.24459999999999</v>
+      </c>
+      <c r="Q53" s="7">
+        <v>4.67</v>
+      </c>
+      <c r="R53" s="2">
+        <v>16</v>
+      </c>
+      <c r="S53" s="16">
+        <v>4</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C54" s="2">
+        <v>5</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q54" s="7">
+        <v>4.87</v>
+      </c>
+      <c r="R54" s="2">
+        <v>13</v>
+      </c>
+      <c r="S54" s="16">
+        <v>7</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q55" s="7">
+        <v>2.62</v>
+      </c>
+      <c r="R55" s="2">
+        <v>10</v>
+      </c>
+      <c r="S55" s="16">
+        <v>10</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C56" s="2">
+        <v>5</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>3.67</v>
+      </c>
+      <c r="R56" s="2">
+        <v>16</v>
+      </c>
+      <c r="S56" s="16">
+        <v>4</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="R57" s="2">
+        <v>15</v>
+      </c>
+      <c r="S57" s="16">
+        <v>5</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q58" s="7">
+        <v>9.85</v>
+      </c>
+      <c r="R58" s="2">
+        <v>16</v>
+      </c>
+      <c r="S58" s="16">
+        <v>4</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>9.11</v>
+      </c>
+      <c r="R59" s="2">
+        <v>17</v>
+      </c>
+      <c r="S59" s="16">
+        <v>3</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C60" s="2">
+        <v>5</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>11.83</v>
+      </c>
+      <c r="R60" s="2">
+        <v>15</v>
+      </c>
+      <c r="S60" s="16">
+        <v>5</v>
+      </c>
+      <c r="T60" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C61" s="2">
+        <v>5</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q61" s="7">
+        <v>7.51</v>
+      </c>
+      <c r="R61" s="2">
+        <v>13</v>
+      </c>
+      <c r="S61" s="16">
+        <v>7</v>
+      </c>
+      <c r="T61" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C62" s="2">
+        <v>5</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="H62" s="11">
+        <v>550.71630000000005</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K62" s="11">
+        <v>456.18990000000002</v>
+      </c>
+      <c r="L62" s="11">
+        <v>178.71889999999999</v>
+      </c>
+      <c r="M62" s="11">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="N62" s="11">
+        <v>11.5825</v>
+      </c>
+      <c r="O62" s="11">
+        <v>62.265000000000001</v>
+      </c>
+      <c r="P62" s="11">
+        <v>335.59859999999998</v>
+      </c>
+      <c r="Q62" s="7">
+        <v>8.27</v>
+      </c>
+      <c r="R62" s="2">
+        <v>16</v>
+      </c>
+      <c r="S62" s="16">
+        <v>4</v>
+      </c>
+      <c r="T62" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="2">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>7.82</v>
+      </c>
+      <c r="H63" s="11">
+        <v>360.90480000000002</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K63" s="11">
+        <v>437.9923</v>
+      </c>
+      <c r="L63" s="11">
+        <v>129.2458</v>
+      </c>
+      <c r="M63" s="11">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="N63" s="11">
+        <v>14.805999999999999</v>
+      </c>
+      <c r="O63" s="11">
+        <v>64.363799999999998</v>
+      </c>
+      <c r="P63" s="11">
+        <v>293.27480000000003</v>
+      </c>
+      <c r="Q63" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="R63" s="2">
+        <v>16</v>
+      </c>
+      <c r="S63" s="16">
+        <v>4</v>
+      </c>
+      <c r="T63" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C64" s="2">
+        <v>5</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="2">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="H64" s="11">
+        <v>322.50869999999998</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64" s="11">
+        <v>351.71660000000003</v>
+      </c>
+      <c r="L64" s="11">
+        <v>126.8741</v>
+      </c>
+      <c r="M64" s="11">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="N64" s="11">
+        <v>8.6280999999999999</v>
+      </c>
+      <c r="O64" s="11">
+        <v>47.0884</v>
+      </c>
+      <c r="P64" s="11">
+        <v>278.31920000000002</v>
+      </c>
+      <c r="Q64" s="7">
+        <v>7.84</v>
+      </c>
+      <c r="R64" s="2">
+        <v>11</v>
+      </c>
+      <c r="S64" s="16">
+        <v>9</v>
+      </c>
+      <c r="T64" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="H65" s="11">
+        <v>186.6241</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K65" s="11">
+        <v>229.8048</v>
+      </c>
+      <c r="L65" s="11">
+        <v>98.982299999999995</v>
+      </c>
+      <c r="M65" s="11">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N65" s="11">
+        <v>16.952100000000002</v>
+      </c>
+      <c r="O65" s="11">
+        <v>48.443199999999997</v>
+      </c>
+      <c r="P65" s="11">
+        <v>194.67230000000001</v>
+      </c>
+      <c r="Q65" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="R65" s="2">
+        <v>9</v>
+      </c>
+      <c r="S65" s="16">
+        <v>11</v>
+      </c>
+      <c r="T65" s="2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C66" s="2">
+        <v>5</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2">
+        <v>1</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="11">
+        <v>523.19680000000005</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J66" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66" s="11">
+        <v>494.01929999999999</v>
+      </c>
+      <c r="L66" s="11">
+        <v>211.17179999999999</v>
+      </c>
+      <c r="M66" s="11">
+        <v>2.76E-2</v>
+      </c>
+      <c r="N66" s="11">
+        <v>11.1</v>
+      </c>
+      <c r="O66" s="11">
+        <v>74.370699999999999</v>
+      </c>
+      <c r="P66" s="11">
+        <v>304.827</v>
+      </c>
+      <c r="Q66" s="7">
+        <v>4.95</v>
+      </c>
+      <c r="R66" s="2">
+        <v>14</v>
+      </c>
+      <c r="S66" s="16">
+        <v>6</v>
+      </c>
+      <c r="T66" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C67" s="2">
+        <v>5</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H67" s="11">
+        <v>232.66370000000001</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K67" s="11">
+        <v>287.47019999999998</v>
+      </c>
+      <c r="L67" s="11">
+        <v>107.06659999999999</v>
+      </c>
+      <c r="M67" s="11">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="N67" s="11">
+        <v>13.777100000000001</v>
+      </c>
+      <c r="O67" s="11">
+        <v>66.570899999999995</v>
+      </c>
+      <c r="P67" s="11">
+        <v>183.58449999999999</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>4.96</v>
+      </c>
+      <c r="R67" s="2">
+        <v>10</v>
+      </c>
+      <c r="S67" s="16">
+        <v>10</v>
+      </c>
+      <c r="T67" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C68" s="2">
+        <v>5</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>3.21</v>
+      </c>
+      <c r="R68" s="2">
+        <v>15</v>
+      </c>
+      <c r="S68" s="16">
+        <v>5</v>
+      </c>
+      <c r="T68" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>3.97</v>
+      </c>
+      <c r="R69" s="2">
+        <v>16</v>
+      </c>
+      <c r="S69" s="16">
+        <v>4</v>
+      </c>
+      <c r="T69" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C70" s="2">
+        <v>5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q70" s="7">
+        <v>12.23</v>
+      </c>
+      <c r="R70" s="2">
+        <v>15</v>
+      </c>
+      <c r="S70" s="16">
+        <v>5</v>
+      </c>
+      <c r="T70" s="2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="M71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q71" s="7">
+        <v>6.61</v>
+      </c>
+      <c r="R71" s="2">
+        <v>13</v>
+      </c>
+      <c r="S71" s="16">
+        <v>7</v>
+      </c>
+      <c r="T71" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="2">
+        <v>8.25</v>
+      </c>
+      <c r="H72" s="11">
+        <v>272.88350000000003</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J72" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K72" s="11">
+        <v>310.64100000000002</v>
+      </c>
+      <c r="L72" s="11">
+        <v>121.0351</v>
+      </c>
+      <c r="M72" s="11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N72" s="11">
+        <v>11.218999999999999</v>
+      </c>
+      <c r="O72" s="11">
+        <v>53.208500000000001</v>
+      </c>
+      <c r="P72" s="11">
+        <v>218.56649999999999</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>14.32</v>
+      </c>
+      <c r="R72" s="2">
+        <v>16</v>
+      </c>
+      <c r="S72" s="16">
+        <v>4</v>
+      </c>
+      <c r="T72" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C73" s="2">
+        <v>5</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="2">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H73" s="11">
+        <v>299.209</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K73" s="11">
+        <v>378.38080000000002</v>
+      </c>
+      <c r="L73" s="11">
+        <v>140.95599999999999</v>
+      </c>
+      <c r="M73" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="N73" s="11">
+        <v>14.9983</v>
+      </c>
+      <c r="O73" s="11">
+        <v>54.165999999999997</v>
+      </c>
+      <c r="P73" s="11">
+        <v>244.46510000000001</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="R73" s="2">
+        <v>14</v>
+      </c>
+      <c r="S73" s="16">
+        <v>6</v>
+      </c>
+      <c r="T73" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q75" s="6"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q76" s="6"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q77" s="6"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q78" s="6"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q79" s="6"/>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q80" s="6"/>
+    </row>
+    <row r="81" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q81" s="6"/>
+    </row>
+    <row r="82" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q82" s="6"/>
+    </row>
+    <row r="83" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q83" s="6"/>
+    </row>
+    <row r="84" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q84" s="6"/>
+    </row>
+    <row r="85" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q85" s="6"/>
+    </row>
+    <row r="86" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q86" s="6"/>
+    </row>
+    <row r="87" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q87" s="6"/>
+    </row>
+    <row r="88" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q88" s="6"/>
+    </row>
+    <row r="89" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q89" s="6"/>
+    </row>
+    <row r="90" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q90" s="6"/>
+    </row>
+    <row r="91" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q91" s="6"/>
+    </row>
+    <row r="92" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q92" s="6"/>
+    </row>
+    <row r="93" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q93" s="6"/>
+    </row>
+    <row r="94" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q95" s="6"/>
+    </row>
+    <row r="96" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q96" s="6"/>
+    </row>
+    <row r="97" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q97" s="6"/>
+    </row>
+    <row r="98" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q98" s="6"/>
+    </row>
+    <row r="99" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q99" s="6"/>
+    </row>
+    <row r="100" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q100" s="6"/>
+    </row>
+    <row r="101" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q101" s="6"/>
+    </row>
+    <row r="102" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q102" s="6"/>
+    </row>
+    <row r="103" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q103" s="6"/>
+    </row>
+    <row r="104" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q104" s="6"/>
+    </row>
+    <row r="105" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q105" s="6"/>
+    </row>
+    <row r="106" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q106" s="6"/>
+    </row>
+    <row r="107" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q107" s="6"/>
+    </row>
+    <row r="108" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q108" s="6"/>
+    </row>
+    <row r="109" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q109" s="6"/>
+    </row>
+    <row r="110" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q111" s="6"/>
+    </row>
+    <row r="112" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q112" s="6"/>
+    </row>
+    <row r="113" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q113" s="6"/>
+    </row>
+    <row r="114" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q114" s="6"/>
+    </row>
+    <row r="115" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q115" s="6"/>
+    </row>
+    <row r="116" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q116" s="6"/>
+    </row>
+    <row r="117" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q117" s="6"/>
+    </row>
+    <row r="118" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q118" s="6"/>
+    </row>
+    <row r="119" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q119" s="6"/>
+    </row>
+    <row r="120" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q120" s="6"/>
+    </row>
+    <row r="121" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q121" s="6"/>
+    </row>
+    <row r="122" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q122" s="6"/>
+    </row>
+    <row r="123" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q123" s="6"/>
+    </row>
+    <row r="124" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q124" s="6"/>
+    </row>
+    <row r="125" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q125" s="6"/>
+    </row>
+    <row r="126" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q126" s="6"/>
+    </row>
+    <row r="127" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q127" s="6"/>
+    </row>
+    <row r="128" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q128" s="6"/>
+    </row>
+    <row r="129" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q129" s="6"/>
+    </row>
+    <row r="130" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q130" s="6"/>
+    </row>
+    <row r="131" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q131" s="6"/>
+    </row>
+    <row r="132" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q132" s="6"/>
+    </row>
+    <row r="133" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q133" s="6"/>
+    </row>
+    <row r="134" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q134" s="6"/>
+    </row>
+    <row r="135" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q135" s="6"/>
+    </row>
+    <row r="136" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q136" s="6"/>
+    </row>
+    <row r="137" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q137" s="6"/>
+    </row>
+    <row r="138" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q138" s="6"/>
+    </row>
+    <row r="139" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q139" s="6"/>
+    </row>
+    <row r="140" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q140" s="6"/>
+    </row>
+    <row r="141" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q141" s="6"/>
+    </row>
+    <row r="142" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q142" s="6"/>
+    </row>
+    <row r="143" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q143" s="6"/>
+    </row>
+    <row r="144" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q144" s="6"/>
+    </row>
+    <row r="145" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q145" s="6"/>
+    </row>
+    <row r="146" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q146" s="6"/>
+    </row>
+    <row r="147" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q147" s="6"/>
+    </row>
+    <row r="148" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q148" s="6"/>
+    </row>
+    <row r="149" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q149" s="6"/>
+    </row>
+    <row r="150" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q150" s="6"/>
+    </row>
+    <row r="151" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q151" s="6"/>
+    </row>
+    <row r="152" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q152" s="6"/>
+    </row>
+    <row r="153" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q153" s="6"/>
+    </row>
+    <row r="154" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q154" s="6"/>
+    </row>
+    <row r="155" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q155" s="6"/>
+    </row>
+    <row r="156" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q156" s="6"/>
+    </row>
+    <row r="157" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q157" s="6"/>
+    </row>
+    <row r="158" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q158" s="6"/>
+    </row>
+    <row r="159" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q159" s="6"/>
+    </row>
+    <row r="160" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q160" s="6"/>
+    </row>
+    <row r="161" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q161" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -7023,11 +10513,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V159"/>
+  <dimension ref="A1:V160"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7577,13 +11067,13 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -7603,18 +11093,31 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
+      <c r="A21" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="7"/>
       <c r="U21" s="9"/>
     </row>
@@ -7635,6 +11138,8 @@
       <c r="U22" s="9"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="D23" s="2"/>
       <c r="H23" s="10"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -7706,15 +11211,15 @@
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
       <c r="R28" s="7"/>
       <c r="U28" s="9"/>
     </row>
@@ -7790,15 +11295,15 @@
     </row>
     <row r="34" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H34" s="10"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
       <c r="R34" s="7"/>
       <c r="U34" s="9"/>
     </row>
@@ -7818,10 +11323,10 @@
     </row>
     <row r="36" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
@@ -7832,10 +11337,10 @@
     </row>
     <row r="37" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H37" s="10"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
@@ -7874,15 +11379,15 @@
     </row>
     <row r="40" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
       <c r="R40" s="7"/>
       <c r="U40" s="9"/>
     </row>
@@ -7958,15 +11463,15 @@
     </row>
     <row r="46" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H46" s="10"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
       <c r="R46" s="7"/>
       <c r="U46" s="9"/>
     </row>
@@ -8042,15 +11547,15 @@
     </row>
     <row r="52" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
       <c r="R52" s="7"/>
       <c r="U52" s="9"/>
     </row>
@@ -8154,15 +11659,15 @@
     </row>
     <row r="60" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H60" s="10"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
       <c r="R60" s="7"/>
       <c r="U60" s="9"/>
     </row>
@@ -8238,15 +11743,15 @@
     </row>
     <row r="66" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
       <c r="R66" s="7"/>
       <c r="U66" s="9"/>
     </row>
@@ -8294,15 +11799,15 @@
     </row>
     <row r="70" spans="8:21" x14ac:dyDescent="0.25">
       <c r="H70" s="10"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-      <c r="M70" s="11"/>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
-      <c r="Q70" s="11"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
       <c r="R70" s="7"/>
       <c r="U70" s="9"/>
     </row>
@@ -8321,8 +11826,18 @@
       <c r="U71" s="9"/>
     </row>
     <row r="72" spans="8:21" x14ac:dyDescent="0.25">
-      <c r="R72" s="6"/>
-      <c r="U72"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="7"/>
+      <c r="U72" s="9"/>
     </row>
     <row r="73" spans="8:21" x14ac:dyDescent="0.25">
       <c r="R73" s="6"/>
@@ -8671,6 +12186,10 @@
     <row r="159" spans="18:21" x14ac:dyDescent="0.25">
       <c r="R159" s="6"/>
       <c r="U159"/>
+    </row>
+    <row r="160" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R160" s="6"/>
+      <c r="U160"/>
     </row>
   </sheetData>
   <sortState ref="A2:Q163">
